--- a/docs/source/index/tables/t2_overview_scales.xlsx
+++ b/docs/source/index/tables/t2_overview_scales.xlsx
@@ -52,10 +52,10 @@
     <t xml:space="preserve">Kawashima08</t>
   </si>
   <si>
-    <t xml:space="preserve">scales_classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classification of scales (Aaontology)</t>
+    <t xml:space="preserve">scales_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification of scales (AAontology)</t>
   </si>
   <si>
     <t xml:space="preserve">scales_pc</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">top60</t>
   </si>
   <si>
-    <t xml:space="preserve">Top 60 scale subsets</t>
+    <t xml:space="preserve">Top 60 scale subsets (AAclust) </t>
   </si>
   <si>
     <t xml:space="preserve">top60_eval</t>
@@ -200,10 +200,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>

--- a/docs/source/index/tables/t2_overview_scales.xlsx
+++ b/docs/source/index/tables/t2_overview_scales.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Amino acid scales (min-max normalized)</t>
   </si>
   <si>
-    <t xml:space="preserve">Breimann23b</t>
+    <t xml:space="preserve">Breimann24b</t>
   </si>
   <si>
     <t xml:space="preserve">scales_raw</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Principal component (PC) compressed scales</t>
   </si>
   <si>
-    <t xml:space="preserve">Breimann23a</t>
+    <t xml:space="preserve">Breimann24a</t>
   </si>
   <si>
     <t xml:space="preserve">top60</t>
@@ -199,11 +199,11 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
